--- a/210621 - AG thesis/Thesis/Graphics/R packages (Includes Table S2).xlsx
+++ b/210621 - AG thesis/Thesis/Graphics/R packages (Includes Table S2).xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\AG-TL-MUD-human-enteric-viruses-quantitation\210621 - AG thesis\Thesis\Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2D483-59A6-4154-82CA-65DB82ED7316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E078CFC8-F319-486E-93DD-9AD450C60AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5016" yWindow="5016" windowWidth="10824" windowHeight="7500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S2" sheetId="2" r:id="rId1"/>
-    <sheet name="All" sheetId="1" r:id="rId2"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table S2'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table S2'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Package name</t>
   </si>
@@ -52,39 +53,24 @@
     <t>4.5-0</t>
   </si>
   <si>
-    <t>[Harrell et al., 2021]</t>
-  </si>
-  <si>
-    <t>[Genz et al., 2021]</t>
-  </si>
-  <si>
     <t>ggplot2</t>
   </si>
   <si>
     <t>3.3.4</t>
   </si>
   <si>
-    <t>[Wickham, 2016]</t>
-  </si>
-  <si>
     <t>plyr</t>
   </si>
   <si>
     <t>1.8.6</t>
   </si>
   <si>
-    <t>[Wickham, 2011]</t>
-  </si>
-  <si>
     <t>reshape2</t>
   </si>
   <si>
     <t>1.4.4</t>
   </si>
   <si>
-    <t>[Wickham, 2007]</t>
-  </si>
-  <si>
     <t>scales</t>
   </si>
   <si>
@@ -151,47 +137,65 @@
     <t>1.2-4</t>
   </si>
   <si>
-    <t>[Wickham and Seidel, 2020]</t>
-  </si>
-  <si>
-    <t>[Wickham and Bryan, 2019]</t>
-  </si>
-  <si>
-    <t>[Wickham and Bryan, 2021]</t>
-  </si>
-  <si>
-    <t>[Wickham et al., 2021a]</t>
-  </si>
-  <si>
-    <t>[Wickham et al., 2021b]</t>
-  </si>
-  <si>
-    <t>[Ushey et al., 2020]</t>
-  </si>
-  <si>
-    <t>[Bae, 2021]</t>
-  </si>
-  <si>
-    <t>[Makowski et al., 2020]</t>
-  </si>
-  <si>
-    <t>[Sarkar, 2008]</t>
-  </si>
-  <si>
-    <t>[Therneau, 2021]</t>
-  </si>
-  <si>
-    <t>[Vu, 2011]</t>
-  </si>
-  <si>
-    <t>[Zeileis and Croissant, 2010]</t>
+    <t>[Wickham et al., 2021a] - https://CRAN.R-project.org/package=devtools</t>
+  </si>
+  <si>
+    <t>[Wickham et al., 2021b] - https://CRAN.R-project.org/package=dplyr</t>
+  </si>
+  <si>
+    <t>[Zeileis and Croissant, 2010] - https://doi.org/10.18637/jss.v034.i01</t>
+  </si>
+  <si>
+    <t>[Wickham, 2016] - Book: ggplot2: Elegant Graphics for Data Analysis. Springer-Verlag New York, 2016.</t>
+  </si>
+  <si>
+    <t>[Vu, 2011] - http://github.com/vqv/ggbiplot</t>
+  </si>
+  <si>
+    <t>[Harrell et al., 2021] - https://CRAN.R-project.org/package=Hmisc</t>
+  </si>
+  <si>
+    <t>[Sarkar, 2008] - Book: Lattice: Multivariate Data Visualization with R. Springer, New York. ISBN 978-0-387-75968-5</t>
+  </si>
+  <si>
+    <t>[Genz et al., 2021] - http://CRAN.R-project.org/package=mvtnorm</t>
+  </si>
+  <si>
+    <t>[Wickham, 2011] - http://www.jstatsoft.org/v40/i01/</t>
+  </si>
+  <si>
+    <t>[Wickham and Bryan, 2019] - https://CRAN.R-project.org/package=readxl</t>
+  </si>
+  <si>
+    <t>[Makowski et al., 2020] - https://github.com/easystats/report</t>
+  </si>
+  <si>
+    <t>[Wickham, 2020] - https://CRAN.R-project.org/package=reshape2</t>
+  </si>
+  <si>
+    <t>[Ushey et al., 2020] - https://CRAN.R-project.org/package=rstudioapi</t>
+  </si>
+  <si>
+    <t>[Bae, 2021] - https://CRAN.R-project.org/package=sasLM</t>
+  </si>
+  <si>
+    <t>[Wickham and Seidel, 2020] - https://CRAN.R-project.org/package=scales</t>
+  </si>
+  <si>
+    <t>[Therneau, 2021] - https://CRAN.R-project.org/package=survival</t>
+  </si>
+  <si>
+    <t>[Wickham and Bryan, 2021] - https://CRAN.R-project.org/package=usethis</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,11 +205,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,13 +252,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,177 +542,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EDF4D6-CD3F-4A83-B330-D510AFD96111}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{64EDF4D6-CD3F-4A83-B330-D510AFD96111}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -710,219 +767,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774BFA96-FCBA-4246-99E9-50F55BB2BBA9}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/210621 - AG thesis/Thesis/Graphics/R packages (Includes Table S2).xlsx
+++ b/210621 - AG thesis/Thesis/Graphics/R packages (Includes Table S2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\AG-TL-MUD-human-enteric-viruses-quantitation\210621 - AG thesis\Thesis\Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E078CFC8-F319-486E-93DD-9AD450C60AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68FD2F-BAB1-4E5C-9591-AC3C759999DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="5016" windowWidth="10824" windowHeight="7500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5016" yWindow="5016" windowWidth="10824" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774BFA96-FCBA-4246-99E9-50F55BB2BBA9}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
